--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,27 +49,27 @@
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,112 +82,109 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>join</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>share</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>health</t>
   </si>
   <si>
     <t>online</t>
@@ -202,16 +199,13 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -569,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -762,13 +756,13 @@
         <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -788,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6952054794520548</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4871794871794872</v>
+        <v>0.6917808219178082</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3624161073825503</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3466666666666667</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3389830508474576</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
@@ -1038,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3197674418604651</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C11">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.828125</v>
+        <v>0.8046875</v>
       </c>
       <c r="L11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2987012987012987</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>335</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2804232804232804</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1746031746031746</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1018766756032172</v>
+        <v>0.1045576407506702</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
@@ -1288,13 +1282,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7605633802816901</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L16">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1314,13 +1308,13 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1332,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1340,13 +1334,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7407407407407407</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1358,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1366,13 +1360,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.69375</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1384,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1392,13 +1386,13 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.70625</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1410,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1418,13 +1412,13 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1436,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1444,13 +1438,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6808510638297872</v>
+        <v>0.5900783289817232</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1462,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1470,13 +1464,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1488,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1496,13 +1490,13 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1514,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1522,13 +1516,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6135770234986945</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L25">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="M25">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1540,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1548,13 +1542,13 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>0.5735294117647058</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L26">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1566,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>145</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1574,13 +1568,13 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>0.5393258426966292</v>
+        <v>0.54</v>
       </c>
       <c r="L27">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1592,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1600,13 +1594,13 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.5277777777777778</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1618,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1626,13 +1620,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.525</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1644,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1652,13 +1646,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.4915254237288136</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L30">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M30">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1670,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1678,13 +1672,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.4883720930232558</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1696,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1704,25 +1698,25 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>36</v>
-      </c>
-      <c r="M32">
-        <v>36</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1730,13 +1724,13 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.4476987447698745</v>
+        <v>0.4375</v>
       </c>
       <c r="L33">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1748,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>132</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1756,13 +1750,13 @@
         <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4222222222222222</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1774,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1782,13 +1776,13 @@
         <v>54</v>
       </c>
       <c r="K35">
-        <v>0.410958904109589</v>
+        <v>0.4</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1800,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1808,13 +1802,13 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0.3692307692307693</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1826,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1834,25 +1828,25 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.34375</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1860,13 +1854,13 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3428571428571429</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1878,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1886,13 +1880,13 @@
         <v>58</v>
       </c>
       <c r="K39">
-        <v>0.1052631578947368</v>
+        <v>0.08413461538461539</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1904,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1912,13 +1906,13 @@
         <v>59</v>
       </c>
       <c r="K40">
-        <v>0.09615384615384616</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1930,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>376</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1938,13 +1932,13 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.06040268456375839</v>
+        <v>0.048834628190899</v>
       </c>
       <c r="L41">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1956,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>840</v>
+        <v>857</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1964,25 +1958,25 @@
         <v>61</v>
       </c>
       <c r="K42">
-        <v>0.04994450610432852</v>
+        <v>0.02431042543244507</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>856</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1990,25 +1984,25 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.03230769230769231</v>
+        <v>0.01129032258064516</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>629</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2016,77 +2010,25 @@
         <v>63</v>
       </c>
       <c r="K44">
-        <v>0.02883506343713956</v>
+        <v>0.006892230576441102</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K45">
-        <v>0.01963534361851332</v>
-      </c>
-      <c r="L45">
-        <v>42</v>
-      </c>
-      <c r="M45">
-        <v>46</v>
-      </c>
-      <c r="N45">
-        <v>0.91</v>
-      </c>
-      <c r="O45">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K46">
-        <v>0.01322154143824573</v>
-      </c>
-      <c r="L46">
-        <v>41</v>
-      </c>
-      <c r="M46">
-        <v>47</v>
-      </c>
-      <c r="N46">
-        <v>0.87</v>
-      </c>
-      <c r="O46">
-        <v>0.13</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>3060</v>
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
